--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -676,7 +676,7 @@
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>718_银莲白_undefined_undefined_1bunch</v>
+        <v>717_银莲玫红_undefined_undefined_1bunch</v>
       </c>
     </row>
     <row r="30">

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -678,6 +678,9 @@
       <c r="C29" t="str">
         <v>717_银莲玫红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
@@ -749,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151515101010159200801015202030201661010101513101020000</v>
+        <v>020151515101010159200801015202030201661010101513101020500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -686,6 +686,9 @@
       <c r="C30" t="str">
         <v>691_银莲紫_undefined_undefined_1bunch</v>
       </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151515101010159200801015202030201661010101513101020500</v>
+        <v>020151515101010159200801015202030201661010101513101020550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -694,6 +694,9 @@
       <c r="C31" t="str">
         <v>719_银莲红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -755,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151515101010159200801015202030201661010101513101020550</v>
+        <v>020151515101010159200801015202030201661010101513101020555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -676,7 +676,7 @@
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>717_银莲玫红_undefined_undefined_1bunch</v>
+        <v>718_银莲白_undefined_undefined_1bunch</v>
       </c>
       <c r="F29" t="str">
         <v>5</v>

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,9 +698,184 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>6</v>
+      </c>
+      <c r="C32" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>3</v>
+      </c>
+      <c r="C38" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>4</v>
+      </c>
+      <c r="C42" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>703_琅琊花白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>383_油画向日葵_sunflower black_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -758,7 +933,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151515101010159200801015202030201661010101513101020555</v>
+        <v>02015151510101015920080101520203020166101010151310102055530263010045205131432020107115151550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -872,6 +872,9 @@
       <c r="C51" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -933,7 +936,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02015151510101015920080101520203020166101010151310102055530263010045205131432020107115151550</v>
+        <v>02015151510101015920080101520203020166101010151310102055530263010045205131432020107115151555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-9.xlsx
@@ -938,6 +938,9 @@
       <c r="G2" t="str">
         <v>02015151510101015920080101520203020166101010151310102055530263010045205131432020107115151555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
